--- a/Resources/db/Sample.xlsx
+++ b/Resources/db/Sample.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MY JOB\MDP- TAC ( 2020)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skwd\Resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDFD033-2D4C-4482-9738-A471050122A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FF55E-D50F-47AF-B050-DBF7B3760DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -521,30 +521,15 @@
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -554,48 +539,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -626,15 +581,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,15 +591,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,24 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,52 +609,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,23 +627,11 @@
     <xf numFmtId="165" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -771,6 +639,138 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,165 +1087,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F391BC2-5022-4EA7-BB57-F68CE61B9991}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="56"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="29"/>
       <c r="M5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="L6" s="57"/>
+      <c r="A6" s="1"/>
+      <c r="L6" s="30"/>
       <c r="M6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="58"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="31"/>
       <c r="M7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="88"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="44"/>
       <c r="M8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="G9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="59">
+      <c r="B10" s="3"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="32">
         <v>32</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="35">
         <f>(67.5*24)*D10</f>
         <v>51840</v>
       </c>
@@ -1263,109 +1263,109 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="85">
         <v>21407.35</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="86"/>
       <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="85">
         <v>20958.18</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="86"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="79">
         <f>D11-D12</f>
         <v>449.16999999999825</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="87"/>
       <c r="H13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="H14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="62">
-        <v>0</v>
-      </c>
-      <c r="E15" s="63"/>
+      <c r="D15" s="77">
+        <v>0</v>
+      </c>
+      <c r="E15" s="78"/>
       <c r="H15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="62">
-        <v>0</v>
-      </c>
-      <c r="E16" s="63"/>
+      <c r="D16" s="77">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="79">
         <f>D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="80"/>
       <c r="G17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
       <c r="G18" t="s">
         <v>36</v>
       </c>
@@ -1380,155 +1380,155 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="71">
         <v>2702417.4</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="72"/>
       <c r="G19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="71">
         <v>2646455.9</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="72"/>
       <c r="H20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="75">
         <f>D19-D20</f>
         <v>55961.5</v>
       </c>
-      <c r="E21" s="75"/>
+      <c r="E21" s="76"/>
       <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="37"/>
-      <c r="I22" s="87" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="I22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="66">
-        <v>0</v>
-      </c>
-      <c r="E23" s="76">
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36">
         <f>D23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86" t="s">
+      <c r="J23" s="42"/>
+      <c r="K23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86" t="s">
+      <c r="L23" s="42"/>
+      <c r="M23" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="42"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="66">
-        <v>0</v>
-      </c>
-      <c r="E24" s="77">
+      <c r="D24" s="33">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
         <f>D24/60</f>
         <v>0</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="42"/>
+      <c r="K24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="66">
-        <v>0</v>
-      </c>
-      <c r="E25" s="77">
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
         <f>D25/3600</f>
         <v>0</v>
       </c>
-      <c r="I25" s="86" t="s">
+      <c r="I25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21">
+      <c r="D26" s="61"/>
+      <c r="E26" s="8">
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
@@ -1537,46 +1537,46 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24">
+      <c r="B27" s="54"/>
+      <c r="C27" s="9">
         <f>D21/D13</f>
         <v>124.58868579825059</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="55">
         <f>E26*C27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="35"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="67">
-        <v>0</v>
-      </c>
-      <c r="E30" s="78">
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
         <f>D30</f>
         <v>0</v>
       </c>
@@ -1585,15 +1585,15 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="66">
-        <v>0</v>
-      </c>
-      <c r="E31" s="77">
+      <c r="D31" s="33">
+        <v>0</v>
+      </c>
+      <c r="E31" s="37">
         <f>D31/60</f>
         <v>0</v>
       </c>
@@ -1602,15 +1602,15 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="66">
-        <v>0</v>
-      </c>
-      <c r="E32" s="77">
+      <c r="D32" s="33">
+        <v>0</v>
+      </c>
+      <c r="E32" s="37">
         <f>D32/3600</f>
         <v>0</v>
       </c>
@@ -1619,381 +1619,381 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21">
+      <c r="D33" s="61"/>
+      <c r="E33" s="8">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24">
+      <c r="B34" s="54"/>
+      <c r="C34" s="9">
         <f>C27</f>
         <v>124.58868579825059</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="55">
         <v>900.2</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="37"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="71">
         <v>2360572.2000000002</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="72"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="71">
         <v>2246270</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="72"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="79">
+      <c r="D40" s="73">
         <f>D38-D39</f>
         <v>114302.20000000019</v>
       </c>
-      <c r="E40" s="80"/>
+      <c r="E40" s="74"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="37"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="63"/>
+      <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="66">
-        <v>0</v>
-      </c>
-      <c r="E43" s="76">
+      <c r="D43" s="33">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
         <f>D43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="66">
-        <v>0</v>
-      </c>
-      <c r="E44" s="77">
+      <c r="D44" s="33">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
         <f>D44/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="66">
-        <v>0</v>
-      </c>
-      <c r="E45" s="77">
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="E45" s="37">
         <f>D45/3600</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19" t="s">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21">
+      <c r="D46" s="61"/>
+      <c r="E46" s="8">
         <f>SUM(E43:E45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24">
+      <c r="B47" s="54"/>
+      <c r="C47" s="9">
         <v>1E-3</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="55">
         <f>E46*C47</f>
         <v>0</v>
       </c>
-      <c r="E47" s="69"/>
+      <c r="E47" s="56"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="30"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="37"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="66">
-        <v>0</v>
-      </c>
-      <c r="E50" s="76">
+      <c r="D50" s="33">
+        <v>0</v>
+      </c>
+      <c r="E50" s="36">
         <f>D50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="66">
-        <v>0</v>
-      </c>
-      <c r="E51" s="81">
+      <c r="D51" s="33">
+        <v>0</v>
+      </c>
+      <c r="E51" s="39">
         <f>D51/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="66">
-        <v>0</v>
-      </c>
-      <c r="E52" s="81">
+      <c r="D52" s="33">
+        <v>0</v>
+      </c>
+      <c r="E52" s="39">
         <f>D52/3600</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="19" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="33">
+      <c r="D53" s="61"/>
+      <c r="E53" s="18">
         <f>SUM(E50:E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="37"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24">
+      <c r="B55" s="54"/>
+      <c r="C55" s="9">
         <f>C47</f>
         <v>1E-3</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D55" s="55">
         <f>E53*C55</f>
         <v>0</v>
       </c>
-      <c r="E55" s="69"/>
+      <c r="E55" s="56"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="61"/>
+      <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="33">
         <v>4</v>
       </c>
-      <c r="E58" s="76">
+      <c r="E58" s="36">
         <f>D58</f>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="14" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="66">
+      <c r="D59" s="33">
         <v>49</v>
       </c>
-      <c r="E59" s="77">
+      <c r="E59" s="37">
         <f>D59/60</f>
         <v>0.81666666666666665</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="82">
+      <c r="A60" s="25"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="40">
         <f>SUM(E58:E59)</f>
         <v>4.8166666666666664</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="14" t="s">
+      <c r="B61" s="61"/>
+      <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="66">
-        <v>0</v>
-      </c>
-      <c r="E61" s="77">
+      <c r="D61" s="33">
+        <v>0</v>
+      </c>
+      <c r="E61" s="37">
         <f>D61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="47" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="33">
         <v>62</v>
       </c>
-      <c r="E62" s="77">
+      <c r="E62" s="37">
         <f>D62/60</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="83">
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="49">
         <f>E61+E62</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="84"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55" t="s">
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="85">
+      <c r="E65" s="41">
         <f>E60+E63</f>
         <v>5.85</v>
       </c>
@@ -2002,10 +2002,55 @@
       <c r="D67" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="88"/>
+      <c r="E67" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A50:B54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A49:E49"/>
     <mergeCell ref="A63:B64"/>
     <mergeCell ref="C63:D64"/>
     <mergeCell ref="E63:E64"/>
@@ -2016,51 +2061,6 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A43:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:B54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Resources/db/Sample.xlsx
+++ b/Resources/db/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skwd\Resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2FF55E-D50F-47AF-B050-DBF7B3760DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEEBE0-A3AE-4349-929E-214FA86CE3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
   </bookViews>
@@ -639,6 +639,105 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,18 +762,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,93 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F391BC2-5022-4EA7-BB57-F68CE61B9991}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,79 +1101,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="29"/>
       <c r="M5" t="s">
         <v>39</v>
@@ -1187,51 +1187,51 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="31"/>
       <c r="M7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="44"/>
       <c r="M8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -1270,10 +1270,10 @@
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="53">
         <v>21407.35</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="54"/>
       <c r="G11" t="s">
         <v>58</v>
       </c>
@@ -1286,32 +1286,32 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="53">
         <v>20958.18</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="55">
         <f>D11-D12</f>
         <v>449.16999999999825</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="56"/>
       <c r="H13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="H14" t="s">
         <v>60</v>
       </c>
@@ -1324,10 +1324,10 @@
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="77">
-        <v>0</v>
-      </c>
-      <c r="E15" s="78"/>
+      <c r="D15" s="57">
+        <v>0</v>
+      </c>
+      <c r="E15" s="58"/>
       <c r="H15" t="s">
         <v>61</v>
       </c>
@@ -1340,32 +1340,32 @@
       <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="77">
-        <v>0</v>
-      </c>
-      <c r="E16" s="78"/>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="55">
         <f>D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="59"/>
       <c r="G17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="G18" t="s">
         <v>36</v>
       </c>
@@ -1387,10 +1387,10 @@
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="64">
         <v>2702417.4</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="65"/>
       <c r="G19" t="s">
         <v>43</v>
       </c>
@@ -1403,10 +1403,10 @@
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="64">
         <v>2646455.9</v>
       </c>
-      <c r="E20" s="72"/>
+      <c r="E20" s="65"/>
       <c r="H20" t="s">
         <v>44</v>
       </c>
@@ -1419,21 +1419,21 @@
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="66">
         <f>D19-D20</f>
         <v>55961.5</v>
       </c>
-      <c r="E21" s="76"/>
+      <c r="E21" s="67"/>
       <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="I22" s="43" t="s">
         <v>46</v>
       </c>
@@ -1448,10 +1448,10 @@
       <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1476,8 +1476,8 @@
       <c r="N23" s="42"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
@@ -1500,8 +1500,8 @@
       <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1522,12 +1522,12 @@
       <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="60" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="8">
         <f>SUM(E23:E25)</f>
         <v>0</v>
@@ -1537,19 +1537,19 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="9">
         <f>D21/D13</f>
         <v>124.58868579825059</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="62">
         <f>E26*C27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
@@ -1559,17 +1559,17 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="7" t="s">
         <v>20</v>
       </c>
@@ -1585,8 +1585,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
@@ -1602,8 +1602,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="7" t="s">
         <v>22</v>
       </c>
@@ -1619,30 +1619,30 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="60" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="8">
         <f>SUM(E30:E32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="9">
         <f>C27</f>
         <v>124.58868579825059</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="62">
         <v>900.2</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
@@ -1659,11 +1659,11 @@
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1673,10 +1673,10 @@
       <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="64">
         <v>2360572.2000000002</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="65"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -1686,22 +1686,22 @@
       <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="64">
         <v>2246270</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="65"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="70"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="76">
         <f>D38-D39</f>
         <v>114302.20000000019</v>
       </c>
-      <c r="E40" s="74"/>
+      <c r="E40" s="77"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
@@ -1713,17 +1713,17 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="63"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="7" t="s">
         <v>20</v>
       </c>
@@ -1736,8 +1736,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
@@ -1750,8 +1750,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="7" t="s">
         <v>22</v>
       </c>
@@ -1764,30 +1764,30 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="60" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="75"/>
       <c r="E46" s="8">
         <f>SUM(E43:E45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="9">
         <v>1E-3</v>
       </c>
-      <c r="D47" s="55">
+      <c r="D47" s="62">
         <f>E46*C47</f>
         <v>0</v>
       </c>
-      <c r="E47" s="56"/>
+      <c r="E47" s="63"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
@@ -1797,17 +1797,17 @@
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="63"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="7" t="s">
         <v>20</v>
       </c>
@@ -1820,8 +1820,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="7" t="s">
         <v>21</v>
       </c>
@@ -1834,8 +1834,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="7" t="s">
         <v>22</v>
       </c>
@@ -1848,38 +1848,38 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="60" t="s">
+      <c r="A53" s="70"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="61"/>
+      <c r="D53" s="75"/>
       <c r="E53" s="18">
         <f>SUM(E50:E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="9">
         <f>C47</f>
         <v>1E-3</v>
       </c>
-      <c r="D55" s="55">
+      <c r="D55" s="62">
         <f>E53*C55</f>
         <v>0</v>
       </c>
-      <c r="E55" s="56"/>
+      <c r="E55" s="63"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
@@ -1889,19 +1889,19 @@
       <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="61"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
@@ -1930,18 +1930,18 @@
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="40">
         <f>SUM(E58:E59)</f>
         <v>4.8166666666666664</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="61"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="7" t="s">
         <v>32</v>
       </c>
@@ -1968,28 +1968,28 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="49">
+      <c r="A63" s="78"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="82">
         <f>E61+E62</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="50"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="83"/>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="28" t="s">
         <v>35</v>
       </c>
@@ -2006,37 +2006,16 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:B33"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A50:B54"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:E54"/>
@@ -2051,16 +2030,37 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Resources/db/Sample.xlsx
+++ b/Resources/db/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skwd\Resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEEBE0-A3AE-4349-929E-214FA86CE3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668C797-0063-45D7-9538-DD641C9BC878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F391BC2-5022-4EA7-BB57-F68CE61B9991}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="57">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E15" s="58"/>
       <c r="H15" t="s">
@@ -1341,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="58"/>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D17" s="55">
         <f>D15-D16</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="59"/>
       <c r="G17" t="s">
@@ -1456,11 +1456,11 @@
         <v>20</v>
       </c>
       <c r="D23" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="36">
         <f>D23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>47</v>
@@ -1482,11 +1482,11 @@
         <v>21</v>
       </c>
       <c r="D24" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="37">
         <f>D24/60</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>49</v>
@@ -1506,11 +1506,11 @@
         <v>22</v>
       </c>
       <c r="D25" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="37">
         <f>D25/3600</f>
-        <v>0</v>
+        <v>8.3333333333333339E-4</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>50</v>
@@ -1530,7 +1530,7 @@
       <c r="D26" s="75"/>
       <c r="E26" s="8">
         <f>SUM(E23:E25)</f>
-        <v>0</v>
+        <v>1.0341666666666667</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D27" s="62">
         <f>E26*C27</f>
-        <v>0</v>
+        <v>128.8454658963575</v>
       </c>
       <c r="E27" s="63"/>
     </row>
@@ -1574,11 +1574,11 @@
         <v>20</v>
       </c>
       <c r="D30" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="38">
         <f>D30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
         <v>55</v>
@@ -1591,11 +1591,11 @@
         <v>21</v>
       </c>
       <c r="D31" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="37">
         <f>D31/60</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1608,11 +1608,11 @@
         <v>22</v>
       </c>
       <c r="D32" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="37">
         <f>D32/3600</f>
-        <v>0</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
@@ -1627,7 +1627,7 @@
       <c r="D33" s="75"/>
       <c r="E33" s="8">
         <f>SUM(E30:E32)</f>
-        <v>0</v>
+        <v>2.0511111111111111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">

--- a/Resources/db/Sample.xlsx
+++ b/Resources/db/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skwd\Resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668C797-0063-45D7-9538-DD641C9BC878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24182E-DD7A-4FE7-A020-FBC6F9CAD179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
   </bookViews>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F391BC2-5022-4EA7-BB57-F68CE61B9991}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,11 +1728,11 @@
         <v>20</v>
       </c>
       <c r="D43" s="33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E43" s="36">
         <f>D43</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,11 +1742,11 @@
         <v>21</v>
       </c>
       <c r="D44" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E44" s="37">
         <f>D44/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,11 +1756,11 @@
         <v>22</v>
       </c>
       <c r="D45" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="37">
         <f>D45/3600</f>
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
       <c r="D46" s="75"/>
       <c r="E46" s="8">
         <f>SUM(E43:E45)</f>
-        <v>0</v>
+        <v>50.50138888888889</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D47" s="62">
         <f>E46*C47</f>
-        <v>0</v>
+        <v>5.0501388888888894E-2</v>
       </c>
       <c r="E47" s="63"/>
     </row>

--- a/Resources/db/Sample.xlsx
+++ b/Resources/db/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skwd\Resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C24182E-DD7A-4FE7-A020-FBC6F9CAD179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B6590-139F-46ED-87A9-7AD205555D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A8831A65-368B-4BC4-9BD8-D2F3498724C6}"/>
   </bookViews>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F391BC2-5022-4EA7-BB57-F68CE61B9991}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,11 +1812,11 @@
         <v>20</v>
       </c>
       <c r="D50" s="33">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="E50" s="36">
         <f>D50</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,11 +1826,11 @@
         <v>21</v>
       </c>
       <c r="D51" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E51" s="39">
         <f>D51/60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,11 +1840,11 @@
         <v>22</v>
       </c>
       <c r="D52" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E52" s="39">
         <f>D52/3600</f>
-        <v>0</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
       <c r="D53" s="75"/>
       <c r="E53" s="18">
         <f>SUM(E50:E52)</f>
-        <v>0</v>
+        <v>560.50833333333333</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D55" s="62">
         <f>E53*C55</f>
-        <v>0</v>
+        <v>0.56050833333333339</v>
       </c>
       <c r="E55" s="63"/>
     </row>
